--- a/DataTables/Datas/#Resource.xlsx
+++ b/DataTables/Datas/#Resource.xlsx
@@ -997,7 +997,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B5" sqref="B5:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5">
-        <v>1001001</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6">
-        <v>1001002</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1064,92 +1064,92 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7">
-        <v>1001003</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8">
-        <v>1001004</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9">
-        <v>1001005</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10">
-        <v>1001006</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11">
-        <v>1001007</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12">
-        <v>1001008</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13">
-        <v>1001009</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14">
-        <v>1001010</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15">
-        <v>1001011</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16">
-        <v>1001012</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17">
-        <v>1001013</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18">
-        <v>1001014</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19">
-        <v>1001015</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20">
-        <v>1001016</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21">
-        <v>1001017</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22">
-        <v>1001018</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23">
-        <v>1001019</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24">
-        <v>1001020</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
